--- a/Components/Display_BOM.xlsx
+++ b/Components/Display_BOM.xlsx
@@ -29,9 +29,6 @@
     <t>IFE Display BOM 2017 - 2018</t>
   </si>
   <si>
-    <t>5"TFT LCD Display Module WVGA 800x480 High Resolution for MP4,GPS</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -41,7 +38,10 @@
     <t>Link</t>
   </si>
   <si>
-    <t>http://www.buydisplay.com/default/5-tft-lcd-display-module-wvga-800x480-high-resolution-for-mp4-gps</t>
+    <t>LCD 5 inch Display 480x272 TFT Module OPTL Touch Screen for MP4,GPS</t>
+  </si>
+  <si>
+    <t>http://www.buydisplay.com/default/lcd-5-inch-display-480x272-tft-module-touch-screen-for-mp4-gps</t>
   </si>
 </sst>
 </file>
@@ -89,10 +89,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -377,12 +380,12 @@
   <dimension ref="A2:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="1" max="1" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -392,21 +395,21 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>15.61</v>
+        <v>13.95</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
